--- a/biology/Zoologie/Anguidae/Anguidae.xlsx
+++ b/biology/Zoologie/Anguidae/Anguidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Anguidae sont une famille de sauriens[1]. Elle a été créée par John Edward Gray en 1825.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Anguidae sont une famille de sauriens. Elle a été créée par John Edward Gray en 1825.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme Anguidae dérive du nom du genre Anguis avec une terminaison -dae utilisée pour les familles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme Anguidae dérive du nom du genre Anguis avec une terminaison -dae utilisée pour les familles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart de ces lézards sont dépourvus de pattes ou bien ont des pattes réduites ou semi-atrophiées.
 Ils peuvent être de taille variée, allant d'environ 5 cm jusqu'à un peu plus d'un mètre (queue comprise). Ils sont diurnes, principalement terrestres bien que quelques espèces soient arboricoles et aient même une queue préhensile (genre Abronia). Ils sont carnivores et consomment selon les genres divers petits batraciens, insectes et autres petits animaux. 
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Asie, en Europe et en Afrique du Nord[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Asie, en Europe et en Afrique du Nord.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (28 avril 2014)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (28 avril 2014) :
 sous-famille des Anguinae Gray, 1825 -- Orvets (4 genres, 16 espèces) Amérique du Nord, Eurasie, Maghreb ;
 genre Anguis Linnaeus, 1758 
 genre Dopasia Gray, 1853
@@ -630,7 +650,7 @@
 			Elgaria multicarinata
 			Gerrhonotus lugoi
 			Mesaspis monticola
-Les Diploglossinae (Celestus, Diploglossus et Ophiodes) ont été élevés au rang de famille[4]. Ces 3 genres comportent 50 espèces présentes en Amérique centrale, aux Antilles et dans le centre de l'Amérique du Sud.
+Les Diploglossinae (Celestus, Diploglossus et Ophiodes) ont été élevés au rang de famille. Ces 3 genres comportent 50 espèces présentes en Amérique centrale, aux Antilles et dans le centre de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -659,9 +679,11 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En Europe, seulement 2 genres et 5 espèces sont présents[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En Europe, seulement 2 genres et 5 espèces sont présents.
 Anguis cephallonica Werner 1994 ; Sud de la Grèce
 Anguis colchica Nordmann, 1840 ; Europe centrale et de l'Est, Russie, Nord de la Turquie, Caucase, Iran
 Anguis fragilis Linnaeus, 1758, l'Orvet commun ; Europe occidentale (seul lézard sans pattes de France)
@@ -694,7 +716,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gray, 1825 : A synopsis of the genera of reptiles and Amphibia, with a description of some new species. Annals of Philosophy, London, sér. 2, vol. 10, p. 193–217 (texte intégral).</t>
         </is>
